--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.20477108535292</v>
+        <v>90.00387132781556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9324113988895252</v>
+        <v>0.9211197892281811</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.07041577943653</v>
+        <v>88.90728876897663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8547987472877959</v>
+        <v>0.9066998461866064</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97062026791151</v>
+        <v>88.12081800916714</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7997568556782763</v>
+        <v>0.9482605212485655</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.92870995113427</v>
+        <v>86.99613982785444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9364729240532756</v>
+        <v>0.9189879476858249</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.12245343012229</v>
+        <v>85.92730555708836</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6602157841417902</v>
+        <v>0.9097641077189917</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.10241160621635</v>
+        <v>84.92479506113072</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8859465840576463</v>
+        <v>0.9666586320941758</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.04058235441367</v>
+        <v>84.15263261962517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.959982630534153</v>
+        <v>0.9297151394016905</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.09150279705909</v>
+        <v>83.00180202574536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8134935075023303</v>
+        <v>0.7882282955995457</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.1095399182139</v>
+        <v>81.99838935127917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.831832505128602</v>
+        <v>0.9363696206225939</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.92781538941895</v>
+        <v>81.11694729924001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9494599936773312</v>
+        <v>0.9064744682307303</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.11739843091847</v>
+        <v>80.06840172117789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9069351893515689</v>
+        <v>0.850942082116551</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.94704904157595</v>
+        <v>78.98800187111721</v>
       </c>
       <c r="D13" t="n">
-        <v>1.008109863426393</v>
+        <v>0.8836163249762082</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.10706594393679</v>
+        <v>77.9273035103373</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8118734011576662</v>
+        <v>0.7947206547868537</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.94195245327909</v>
+        <v>76.89795167462144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8586559244703117</v>
+        <v>0.8734849729835806</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.10952736157884</v>
+        <v>76.03078869593941</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9249212258566943</v>
+        <v>0.9318267160263815</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.75950196263369</v>
+        <v>74.86516121832204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9893699113017347</v>
+        <v>0.8669245562516906</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.97644451368483</v>
+        <v>74.02283384761634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9920562280926304</v>
+        <v>0.9725921983137431</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.96226229454832</v>
+        <v>73.12508889825683</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8390069404659588</v>
+        <v>0.8663189758938677</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.00099638530708</v>
+        <v>72.04784605917386</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9293600385506714</v>
+        <v>0.9117571681050193</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.00317469428364</v>
+        <v>71.03217821276743</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9086786971871222</v>
+        <v>0.8686258191613815</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.09761605982894</v>
+        <v>69.95010128957335</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9714400080730315</v>
+        <v>0.8962178306512292</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.13026010263832</v>
+        <v>69.01544621466705</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8691416957027958</v>
+        <v>0.984562281967807</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.87847688791159</v>
+        <v>68.1141666630716</v>
       </c>
       <c r="D24" t="n">
-        <v>1.003229101815365</v>
+        <v>0.8528363257784424</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.95854767974465</v>
+        <v>67.1277982467783</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8578694788366594</v>
+        <v>0.9178083166265507</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.07730053226975</v>
+        <v>66.0190805702635</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8925991773989173</v>
+        <v>0.8978570810918602</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.94384684247729</v>
+        <v>65.13831386647446</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8242395715336772</v>
+        <v>0.8717619560920821</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.96117066742092</v>
+        <v>64.05473245520452</v>
       </c>
       <c r="D28" t="n">
-        <v>0.888990796083332</v>
+        <v>0.8999231954965878</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.03130660143641</v>
+        <v>62.93166295204731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9521716496600737</v>
+        <v>0.8523951940454327</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.91047212324071</v>
+        <v>62.03808174458299</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9057885835044377</v>
+        <v>0.8879335006985198</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.07159271777796</v>
+        <v>60.93682461358492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7964689246865615</v>
+        <v>0.8862872712169455</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.04766743827972</v>
+        <v>60.05574056300365</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8877160480269011</v>
+        <v>0.8539030602832095</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00617624294897</v>
+        <v>58.82495433752248</v>
       </c>
       <c r="D33" t="n">
-        <v>0.786622251957214</v>
+        <v>0.8057374958535013</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.99796811761588</v>
+        <v>57.95626805792892</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8060820905050666</v>
+        <v>0.8252224333627582</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.98532044952569</v>
+        <v>57.02357444948836</v>
       </c>
       <c r="D35" t="n">
-        <v>0.947131502615807</v>
+        <v>0.9111205239375221</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.08340231088121</v>
+        <v>55.99551351109234</v>
       </c>
       <c r="D36" t="n">
-        <v>0.834871871098172</v>
+        <v>0.9338119053837939</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96094900444732</v>
+        <v>54.92042094045385</v>
       </c>
       <c r="D37" t="n">
-        <v>0.850993679736438</v>
+        <v>0.9589730051220796</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.99849375553282</v>
+        <v>54.09276938064344</v>
       </c>
       <c r="D38" t="n">
-        <v>0.853982984491387</v>
+        <v>0.9964732891398521</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04345565398372</v>
+        <v>52.95398100139069</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9555847761594064</v>
+        <v>0.8714784393803089</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.18612380262423</v>
+        <v>51.97680770977056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9343029718727264</v>
+        <v>1.040017825944331</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.81920677162448</v>
+        <v>50.87699844818547</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8499246469774678</v>
+        <v>0.8227294011476457</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.99461226879411</v>
+        <v>50.01607377361608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8911953561730742</v>
+        <v>0.8160960659248471</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.94175859568356</v>
+        <v>49.1097370258145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8868119476149959</v>
+        <v>1.035227619905609</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.92883371289155</v>
+        <v>48.01599465944153</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8193450002632546</v>
+        <v>0.8808009830695239</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.13917401169284</v>
+        <v>46.92206516786162</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8660334653291485</v>
+        <v>0.839319663294251</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.00240252940054</v>
+        <v>46.09828718169592</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8508551118959661</v>
+        <v>0.7571864967004517</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.15697160413074</v>
+        <v>45.15890998303027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8578108530516387</v>
+        <v>0.8651896687009957</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.11406921555761</v>
+        <v>43.98025886978982</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9476050612448044</v>
+        <v>0.820179834235664</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.10676585419072</v>
+        <v>42.92152261218393</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8729132690417842</v>
+        <v>0.8409275720214985</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.86928391374616</v>
+        <v>42.0413044680458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8709511528698743</v>
+        <v>0.7904074756933662</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.99004291284074</v>
+        <v>40.87197597060269</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9545459386876157</v>
+        <v>0.961581983077119</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0546482372169</v>
+        <v>40.03542777883576</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8211786776246632</v>
+        <v>0.8507917145215462</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.03011454211433</v>
+        <v>39.02485056133575</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8881481600018011</v>
+        <v>0.9612118162188099</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.08353705576414</v>
+        <v>37.97576327739408</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8409076233030403</v>
+        <v>0.7456894849754873</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.15981180350418</v>
+        <v>37.04647099044409</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9189964452319209</v>
+        <v>0.8068530554305637</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9190889736563</v>
+        <v>35.85458693407592</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9098881718941114</v>
+        <v>0.8569565491508855</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.97875990336583</v>
+        <v>35.06347251807988</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8993574226875141</v>
+        <v>0.8821211860159356</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.16181870460086</v>
+        <v>34.09248380390219</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8184667292612674</v>
+        <v>0.8387159874392343</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.97457496636209</v>
+        <v>33.07188653941319</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8026230123852484</v>
+        <v>0.8839679599963129</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.06523605411289</v>
+        <v>32.02447860620789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8843072841958508</v>
+        <v>0.8217620656950834</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.15000801418368</v>
+        <v>30.99300216795822</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9352756904621754</v>
+        <v>0.8396677985702624</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.02129614753386</v>
+        <v>30.07997759542415</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8148289844449893</v>
+        <v>0.8182879233243032</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.06456960333491</v>
+        <v>28.95470686815489</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8649654225303154</v>
+        <v>0.9736193776921784</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.94331197101279</v>
+        <v>28.03593070182883</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8621757918640849</v>
+        <v>0.840163872168479</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.98188051503334</v>
+        <v>26.93045571020647</v>
       </c>
       <c r="D65" t="n">
-        <v>0.831648926656944</v>
+        <v>0.8520695513423422</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.02246037339075</v>
+        <v>26.03421477966959</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8406527445333546</v>
+        <v>0.8397638349117482</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02114125816215</v>
+        <v>24.95938486203428</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9258631488107836</v>
+        <v>0.8457574751740476</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.02567993803991</v>
+        <v>24.00847698830103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9459971785808609</v>
+        <v>0.7858427986471833</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.93227338939975</v>
+        <v>23.11624520609837</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9325008266661777</v>
+        <v>0.7711988650975881</v>
       </c>
     </row>
   </sheetData>
